--- a/jsl_data/jsl_lof_analysis_20251228.xlsx
+++ b/jsl_data/jsl_lof_analysis_20251228.xlsx
@@ -61299,12 +61299,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>港股高股息LOFC</t>
+          <t>恒生指数LOF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -61314,12 +61314,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>汇添富</t>
+          <t>大成基金</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.99fund.com/main/products/pofund/501306/fundinfo.shtml</t>
+          <t>https://www.dcfund.com.cn/main/fund/productdetail/index.shtml?product_code=160924</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -61344,12 +61344,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.059</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.2300</t>
+          <t>1.0630</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -61359,40 +61359,40 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.38%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>40.56</t>
+          <t>139.90</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>33.0400</t>
+          <t>132.0680</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>14:59:56</t>
+          <t>15:14:21</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1257</v>
+        <v>1534</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>359</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.2227</t>
+          <t>1.0628</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -61417,12 +61417,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>14:59:56</t>
+          <t>15:14:21</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -61442,12 +61442,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>港股通高股息</t>
+          <t>恒生指数</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.20%</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -61457,7 +61457,10 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>M &lt; 100万	1.2%
+100万 ≤ M &lt; 200万	0.8%
+200万 ≤ M &lt; 500万	0.5%
+500万 ≤ M	每笔1000元</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -61472,19 +61475,20 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>T＜7天 1.50%
-7天≤T＜30天 0.10%
-T≥30天 0.0%</t>
+          <t>T &lt; 7天	1.5%
+7天 ≤ T &lt; 365天	0.5%
+365天 ≤ T &lt; 730天	0.25%
+730天 ≤ T	0</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr"/>
@@ -61516,7 +61520,7 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>4936.94</t>
+          <t>25818.93</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
@@ -61533,13 +61537,13 @@
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>管理费：0.50%
-托管费：0.10%</t>
+          <t>管理费：1.00%
+托管费：0.20%</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr"/>
@@ -61560,22 +61564,22 @@
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>最新份额：1257万份；增长：0.08%</t>
+          <t>最新份额：1534万份；增长：30.55%</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2.63%</t>
+          <t>8.61%</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2025-12-26 14:59:56</t>
+          <t>2025-12-26 15:14:21</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>港股高股息LOFC</t>
+          <t>恒生指数LOF</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
@@ -61589,19 +61593,19 @@
         </is>
       </c>
       <c r="BK6" t="n">
-        <v>40.56</v>
+        <v>139.9</v>
       </c>
       <c r="BL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>恒生指数LOF</t>
+          <t>港股高股息LOFC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -61611,12 +61615,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大成基金</t>
+          <t>汇添富</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.dcfund.com.cn/main/fund/productdetail/index.shtml?product_code=160924</t>
+          <t>http://www.99fund.com/main/products/pofund/501306/fundinfo.shtml</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -61641,12 +61645,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.059</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.0630</t>
+          <t>1.2300</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -61656,40 +61660,40 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>-0.24%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>139.90</t>
+          <t>40.56</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>132.0680</t>
+          <t>33.0400</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>15:14:21</t>
+          <t>14:59:56</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>1534</v>
+        <v>1257</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.0628</t>
+          <t>1.2227</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -61714,12 +61718,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>15:14:21</t>
+          <t>14:59:56</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>-0.43%</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -61739,12 +61743,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>港股通高股息</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -61754,10 +61758,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>M &lt; 100万	1.2%
-100万 ≤ M &lt; 200万	0.8%
-200万 ≤ M &lt; 500万	0.5%
-500万 ≤ M	每笔1000元</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -61772,20 +61773,19 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>T &lt; 7天	1.5%
-7天 ≤ T &lt; 365天	0.5%
-365天 ≤ T &lt; 730天	0.25%
-730天 ≤ T	0</t>
+          <t>T＜7天 1.50%
+7天≤T＜30天 0.10%
+T≥30天 0.0%</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr"/>
@@ -61817,7 +61817,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>25818.93</t>
+          <t>4936.94</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
@@ -61834,13 +61834,13 @@
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>管理费：1.00%
-托管费：0.20%</t>
+          <t>管理费：0.50%
+托管费：0.10%</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr"/>
@@ -61861,22 +61861,22 @@
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>最新份额：1534万份；增长：30.55%</t>
+          <t>最新份额：1257万份；增长：0.08%</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>8.61%</t>
+          <t>2.63%</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2025-12-26 15:14:21</t>
+          <t>2025-12-26 14:59:56</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>恒生指数LOF</t>
+          <t>港股高股息LOFC</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
@@ -61890,170 +61890,469 @@
         </is>
       </c>
       <c r="BK7" t="n">
-        <v>139.9</v>
+        <v>40.56</v>
       </c>
       <c r="BL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>港股高股息LOF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>汇添富</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://www.99fund.com/main/products/pofund/501305/fundinfo.shtml</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.275</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.2760</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>72.4666</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>14:59:59</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1394</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1.2639</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>14:59:59</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>港股通高股息</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>100万以下 1.00%
+100万(含) - 500万 0.50%
+500万(含)以上 1000元/笔</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>T＜7天 1.50%
+7天≤T＜30天 0.10%
+T≥30天 0.0%</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>4936.94</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>管理费：0.50%
+托管费：0.10%</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>最新份额：1394万份；增长：0.72%</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:59:59</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>港股高股息LOF</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK8" t="n">
+        <v>92.01000000000001</v>
+      </c>
+      <c r="BL8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>160717</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>H股LOF</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>嘉实基金</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>http://www.jsfund.cn/main/fund/160717/fundManager.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>95.000</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>INDEX</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>0.793</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>0.7930</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>792.77</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>990.8890</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15:14:06</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>5069</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>0.7927</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15:14:06</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0.01%</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>恒生中国企业</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1.50%</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>开放申购</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>50万元以下	1.50%
 50万(含)-200万	1.20%
@@ -62061,17 +62360,17 @@
 500万(含)以上	每笔1000元</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>1.50%</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>开放赎回</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>7天以内	1.5%
 7天(含)-365天	0.50%
@@ -62079,313 +62378,14 @@
 730天(含)以上	0</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>0.20</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>8915.12</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>管理费：0.75%
-托管费：0.20%</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>最新份额：5069万份；增长：0.00%</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>19.55%</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>2025-12-26 15:14:06</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>H股LOF</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK8" t="n">
-        <v>792.77</v>
-      </c>
-      <c r="BL8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>港股高股息LOF</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>汇添富</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>http://www.99fund.com/main/products/pofund/501305/fundinfo.shtml</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.275</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1.2760</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-0.08%</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>72.4666</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>14:59:59</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>1394</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.2639</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>14:59:59</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-0.43%</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>港股通高股息</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>100万以下 1.00%
-100万(含) - 500万 0.50%
-500万(含)以上 1000元/笔</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>T＜7天 1.50%
-7天≤T＜30天 0.10%
-T≥30天 0.0%</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>0.10</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr"/>
@@ -62417,7 +62417,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>4936.94</t>
+          <t>8915.12</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
@@ -62434,13 +62434,13 @@
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>管理费：0.50%
-托管费：0.10%</t>
+          <t>管理费：0.75%
+托管费：0.20%</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr"/>
@@ -62461,22 +62461,22 @@
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>最新份额：1394万份；增长：0.72%</t>
+          <t>最新份额：5069万份；增长：0.00%</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>5.20%</t>
+          <t>19.55%</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2025-12-26 14:59:59</t>
+          <t>2025-12-26 15:14:06</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>港股高股息LOF</t>
+          <t>H股LOF</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
@@ -62490,170 +62490,2267 @@
         </is>
       </c>
       <c r="BK9" t="n">
-        <v>92.01000000000001</v>
+        <v>792.77</v>
       </c>
       <c r="BL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>新经济港股通LOF</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>嘉实基金</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://www.jsfund.cn/main/fund/501311/fundManager.shtml</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.143</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.1430</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>113.27</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>99.3642</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>14:59:21</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>4594</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>14:59:21</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>恒生港股通新经济</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>M＜100万元	1.0%
+100万元≤M＜200万元	0.6%
+M≥200万元	每笔1000元</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>N＜7天	1.5%
+7天≤N＜30天	0.1%
+N≥30天	0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>4326.22</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>管理费：0.75%
+托管费：0.15%</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>最新份额：4594万份；增长：0.00%</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:59:21</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>新经济港股通LOF</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK10" t="n">
+        <v>113.27</v>
+      </c>
+      <c r="BL10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>香港中小LOF</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>华宝基金</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.fsfund.com/fund/501021/fundDetail.shtml</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.459</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.4660</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>553.77</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>379.4337</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>14:58:50</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>4811</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.4609</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>14:58:50</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>香港中小</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>小于100万元，1.0%  
+大于等于100万元，小于200万元，0.6%  
+大于等于200万元，每笔1000元</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>7日内，1.5%
+大于等于7日小于180日，0.50%
+大于等于180日小于1年，0.25%
+大于等于1年，0.00%</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>2972.94</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>管理费：1.00%
+托管费：0.20%</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>最新份额：4811万份；增长：0.00%</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>7.89%</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:58:50</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>香港中小LOF</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK11" t="n">
+        <v>553.77</v>
+      </c>
+      <c r="BL11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>恒生中型股LOF</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>广发基金</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://www.gffunds.com.cn/funds/?fundcode=501303</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.089</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>438.83</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>402.6899</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>14:59:45</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>2226</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1.0910</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>14:59:45</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>恒生综合中型股</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>M &lt; 100	1.200%	
+100 ≤ M &lt; 300	0.800%	
+300 ≤ M &lt; 500	0.400%	
+M ≥ 500	1000元/笔	0元/笔</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>D &lt; 7日	1.500%
+D ≥ 7日	0.500%</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>5041.10</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>管理费：0.50%
+托管费：0.10%</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>最新份额：2226万份；增长：0.00%</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:59:45</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>恒生中型股LOF</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK12" t="n">
+        <v>438.83</v>
+      </c>
+      <c r="BL12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>港股精选LOF</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>华夏基金</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://www.chinaamc.com/fund/160322/index.shtml</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.204</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.2100</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-0.50%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>226.50</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>187.7744</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>15:14:42</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1573</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.2068</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>15:14:42</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>恒生综指</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>申购金额 &lt; 50万元 1.50%
+50万元 ≤ 申购金额 &lt; 200万元 1.20%
+200万元 ≤ 申购金额 &lt; 500万元 0.80%
+申购金额 ≥ 500万元 1000元/笔</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>持有期限 &lt; 7 天 1.5%
+持有期限 ≥ 7天 0.5%</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>3942.11</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>管理费：1.20%
+托管费：0.20%</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>最新份额：1573万份；增长：0.06%</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>11.94%</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>2025-12-26 15:14:42</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>港股精选LOF</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK13" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="BL13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>501302</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>恒生指数基金LOF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>南方基金</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.nffund.com/main/nffund/personal-financing/detail.shtml?fundCode=501302</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.219</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.2230</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>118.65</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>97.2266</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>14:59:56</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1684</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1.2220</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>14:59:56</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>恒生指数</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>M＜100万	1.20
+100万≤M＜300万	0.80
+300万≤M＜500万	0.40
+500万≤M	每笔1000元</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>N&lt;7日	1.50
+7日≤N&lt;180日	0.50
+180日≤N&lt;365日	0.25
+N≥365日	0.00</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>25818.93</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>管理费：0.50%
+托管费：0.10%</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>最新份额：1684万份；增长：0.00%</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>5.77%</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:59:56</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>恒生指数基金LOF</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK14" t="n">
+        <v>118.65</v>
+      </c>
+      <c r="BL14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>香港大盘LOF</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>华宝基金</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.fsfund.com/fund/501301/fundDetail.shtml</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.360</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.3640</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1176.58</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>863.7179</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>14:59:52</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>2106</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1.3615</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>14:59:52</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>-0.02%</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>恒生中国30</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">小于100万元，1.0%  
+大于等于100万元，小于200万元，0.6%  
+大于等于200万元，每笔1000元
+</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>7日内，1.5%
+大于等于7日小于180日，0.50%
+大于等于180日小于1年，0.25%
+大于等于1年，0.00%</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>9479.90</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>管理费：0.75%
+托管费：0.15%</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>最新份额：2106万份；增长：0.00%</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>41.01%</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:59:52</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>香港大盘LOF</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK15" t="n">
+        <v>1176.58</v>
+      </c>
+      <c r="BL15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>香港银行LOF</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>鹏华基金</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.phfund.com.cn/web/FUND_501025</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>95.000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.646</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.6480</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.12%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>224.9340</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>14:59:38</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>21634</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1.6504</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>14:59:38</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>HK银行</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>开放申购</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>M &lt; 100 万	1.20%
+100 万 ≤ M &lt; 500 万	0.60%
+500 万 ≤ M	每笔1000元</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>开放赎回</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>小于7天，1.5%
+超过7天，0.5%</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>4367.96</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>管理费：0.75%
+托管费：0.15%</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>最新份额：21634万份；增长：0.00%</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:59:38</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>香港银行LOF</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>25-12-26</t>
+        </is>
+      </c>
+      <c r="BK16" t="n">
+        <v>369.63</v>
+      </c>
+      <c r="BL16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>164705</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>恒生LOF</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>汇添富</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>http://www.99fund.com/main/products/pofund/164705/fundgk.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>95.000</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>INDEX</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>1.196</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>1.1970</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>-0.08%</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>129.05</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>107.9656</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>15:14:39</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q17" t="n">
         <v>4762</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>334</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>7.54</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>1.1950</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>15:14:39</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>0.17%</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>恒生指数</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>1.20%</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>开放申购</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>M＜100 万元 1.20% 
 100 万元≤M＜300 万元 0.80% 
@@ -62663,2127 +64760,30 @@
 （本基金 C 类基金份额仅可通过场外方式申购，且不收取申购费用）</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>1.50%</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>开放赎回</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>N＜7 日 1.50%
 N≥7 日 0.00</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>0.20</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>25818.93</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>管理费：0.80%
-托管费：0.20%</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>最新份额：4762万份；增长：7.54%</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>2.27%</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>2025-12-26 15:14:39</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>恒生LOF</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK10" t="n">
-        <v>129.05</v>
-      </c>
-      <c r="BL10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>香港中小LOF</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>华宝基金</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://www.fsfund.com/fund/501021/fundDetail.shtml</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.459</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1.4660</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-0.48%</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>553.77</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>379.4337</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>14:58:50</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>4811</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>1.4609</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>14:58:50</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>-0.20%</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>香港中小</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>小于100万元，1.0%  
-大于等于100万元，小于200万元，0.6%  
-大于等于200万元，每笔1000元</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>7日内，1.5%
-大于等于7日小于180日，0.50%
-大于等于180日小于1年，0.25%
-大于等于1年，0.00%</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>2972.94</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>管理费：1.00%
-托管费：0.20%</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>最新份额：4811万份；增长：0.00%</t>
-        </is>
-      </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>7.89%</t>
-        </is>
-      </c>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>2025-12-26 14:58:50</t>
-        </is>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>香港中小LOF</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK11" t="n">
-        <v>553.77</v>
-      </c>
-      <c r="BL11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>港股精选LOF</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>华夏基金</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>http://www.chinaamc.com/fund/160322/index.shtml</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.204</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1.2100</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-0.50%</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>226.50</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>187.7744</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>15:14:42</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>1573</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>1.2068</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>15:14:42</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.07%</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>恒生综指</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>申购金额 &lt; 50万元 1.50%
-50万元 ≤ 申购金额 &lt; 200万元 1.20%
-200万元 ≤ 申购金额 &lt; 500万元 0.80%
-申购金额 ≥ 500万元 1000元/笔</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>持有期限 &lt; 7 天 1.5%
-持有期限 ≥ 7天 0.5%</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>3942.11</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>管理费：1.20%
-托管费：0.20%</t>
-        </is>
-      </c>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>最新份额：1573万份；增长：0.06%</t>
-        </is>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>11.94%</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>2025-12-26 15:14:42</t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>港股精选LOF</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK12" t="n">
-        <v>226.5</v>
-      </c>
-      <c r="BL12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>恒生中型股LOF</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>广发基金</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>http://www.gffunds.com.cn/funds/?fundcode=501303</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.089</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1.0970</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>-0.73%</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>438.83</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>402.6899</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14:59:45</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>2226</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1.0910</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>14:59:45</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-0.18%</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>恒生综合中型股</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>M &lt; 100	1.200%	
-100 ≤ M &lt; 300	0.800%	
-300 ≤ M &lt; 500	0.400%	
-M ≥ 500	1000元/笔	0元/笔</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>D &lt; 7日	1.500%
-D ≥ 7日	0.500%</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>5041.10</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>管理费：0.50%
-托管费：0.10%</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>最新份额：2226万份；增长：0.00%</t>
-        </is>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>18.09%</t>
-        </is>
-      </c>
-      <c r="BG13" t="inlineStr">
-        <is>
-          <t>2025-12-26 14:59:45</t>
-        </is>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>恒生中型股LOF</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK13" t="n">
-        <v>438.83</v>
-      </c>
-      <c r="BL13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>501302</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>恒生指数基金LOF</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>南方基金</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.nffund.com/main/nffund/personal-financing/detail.shtml?fundCode=501302</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1.219</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1.2230</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-0.33%</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>118.65</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>97.2266</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>14:59:56</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1684</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>1.2220</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>14:59:56</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0.17%</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>恒生指数</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>M＜100万	1.20
-100万≤M＜300万	0.80
-300万≤M＜500万	0.40
-500万≤M	每笔1000元</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>N&lt;7日	1.50
-7日≤N&lt;180日	0.50
-180日≤N&lt;365日	0.25
-N≥365日	0.00</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>25818.93</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>管理费：0.50%
-托管费：0.10%</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>最新份额：1684万份；增长：0.00%</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>5.77%</t>
-        </is>
-      </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>2025-12-26 14:59:56</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>恒生指数基金LOF</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK14" t="n">
-        <v>118.65</v>
-      </c>
-      <c r="BL14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>香港大盘LOF</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>华宝基金</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://www.fsfund.com/fund/501301/fundDetail.shtml</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1.360</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1.3640</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-0.29%</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1176.58</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>863.7179</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>14:59:52</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>2106</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>1.3615</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>14:59:52</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>-0.02%</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>恒生中国30</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">小于100万元，1.0%  
-大于等于100万元，小于200万元，0.6%  
-大于等于200万元，每笔1000元
-</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>7日内，1.5%
-大于等于7日小于180日，0.50%
-大于等于180日小于1年，0.25%
-大于等于1年，0.00%</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>9479.90</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>管理费：0.75%
-托管费：0.15%</t>
-        </is>
-      </c>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>最新份额：2106万份；增长：0.00%</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>41.01%</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>2025-12-26 14:59:52</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>香港大盘LOF</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK15" t="n">
-        <v>1176.58</v>
-      </c>
-      <c r="BL15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>香港银行LOF</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>鹏华基金</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://www.phfund.com.cn/web/FUND_501025</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1.646</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1.6480</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-0.12%</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>369.63</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>224.9340</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>14:59:38</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>21634</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1.6504</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>14:59:38</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0.09%</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>HK银行</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>M &lt; 100 万	1.20%
-100 万 ≤ M &lt; 500 万	0.60%
-500 万 ≤ M	每笔1000元</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>小于7天，1.5%
-超过7天，0.5%</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>4367.96</t>
-        </is>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="AZ16" t="inlineStr">
-        <is>
-          <t>管理费：0.75%
-托管费：0.15%</t>
-        </is>
-      </c>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>最新份额：21634万份；增长：0.00%</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>1.04%</t>
-        </is>
-      </c>
-      <c r="BG16" t="inlineStr">
-        <is>
-          <t>2025-12-26 14:59:38</t>
-        </is>
-      </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>香港银行LOF</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>25-12-26</t>
-        </is>
-      </c>
-      <c r="BK16" t="n">
-        <v>369.63</v>
-      </c>
-      <c r="BL16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>新经济港股通LOF</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>嘉实基金</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>http://www.jsfund.cn/main/fund/501311/fundManager.shtml</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>95.000</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1.143</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1.1430</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>113.27</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>99.3642</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>14:59:21</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>4594</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>1.1362</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>14:59:21</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>恒生港股通新经济</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>开放申购</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>M＜100万元	1.0%
-100万元≤M＜200万元	0.6%
-M≥200万元	每笔1000元</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>开放赎回</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>N＜7天	1.5%
-7天≤N＜30天	0.1%
-N≥30天	0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>0.15</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr"/>
@@ -64815,7 +64815,7 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>4326.22</t>
+          <t>25818.93</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
@@ -64832,13 +64832,13 @@
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>管理费：0.75%
-托管费：0.15%</t>
+          <t>管理费：0.80%
+托管费：0.20%</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr"/>
@@ -64859,22 +64859,22 @@
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>最新份额：4594万份；增长：0.00%</t>
+          <t>最新份额：4762万份；增长：7.54%</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>2025-12-26 14:59:21</t>
+          <t>2025-12-26 15:14:39</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>新经济港股通LOF</t>
+          <t>恒生LOF</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
@@ -64888,7 +64888,7 @@
         </is>
       </c>
       <c r="BK17" t="n">
-        <v>113.27</v>
+        <v>129.05</v>
       </c>
       <c r="BL17" t="inlineStr"/>
     </row>
